--- a/docs/efforts/Collin Junkersfeld.xlsx
+++ b/docs/efforts/Collin Junkersfeld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npatel/Dropbox/Oakland/Teaching/CSI4999/Winter2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmjun\OneDrive\Documents\GitHub\golf\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678C5756-92AE-4829-B0EB-C6564415D895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="3200" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1275" windowWidth="21600" windowHeight="11205" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Brief Description of Acomplishments</t>
   </si>
   <si>
-    <t>Wrote usecases UC1, UC2. Developed practice and proceedure for effectively using GIT</t>
-  </si>
-  <si>
     <t>You must provide accurate artifacts created by you. For example</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Pages 11, 12</t>
-  </si>
-  <si>
     <t>Class Diagram</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>Speciifcs of the script and purpose</t>
   </si>
   <si>
-    <t>Requirements.doc</t>
-  </si>
-  <si>
     <t>Sprint # 1</t>
   </si>
   <si>
@@ -220,7 +208,20 @@
     <t>6[IT]</t>
   </si>
   <si>
-    <t>6[CS, IT]</t>
+    <t>6,7[CS, IT]</t>
+  </si>
+  <si>
+    <t>Joined Discord and partook in 3 meetings, Joined Github, helped create and present Sprint 1 Google Slides.  Helped create Sprint 1 Google Doc.</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/master/docs/sprints/Sprint%201.docx; https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx</t>
+  </si>
+  <si>
+    <t>Sprint1.doc
+Sprint1.pptx</t>
+  </si>
+  <si>
+    <t>pptx slide 10,11  doc Toolchain, Language</t>
   </si>
 </sst>
 </file>
@@ -411,6 +412,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -421,24 +440,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,284 +737,284 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="7">
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="18"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="18"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="18"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="18"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="18"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="18"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="18"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="18"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="18"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="4"/>
@@ -1023,6 +1024,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1036,11 +1042,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,22 +1055,22 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -1078,26 +1079,26 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -1106,12 +1107,12 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -1129,18 +1130,18 @@
         <v>5</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -1164,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -1177,7 +1178,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -1190,7 +1191,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>3</v>
       </c>
@@ -1203,7 +1204,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -1216,7 +1217,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -1229,7 +1230,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -1242,7 +1243,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>7</v>
       </c>
@@ -1255,7 +1256,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>8</v>
       </c>

--- a/docs/efforts/Collin Junkersfeld.xlsx
+++ b/docs/efforts/Collin Junkersfeld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmjun\OneDrive\Documents\GitHub\golf\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678C5756-92AE-4829-B0EB-C6564415D895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C5D0A4-A1EA-48A0-81D2-206E09A6BE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1275" windowWidth="21600" windowHeight="11205" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -46,75 +46,9 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>Design.doc</t>
-  </si>
-  <si>
-    <t>Page 3,4</t>
-  </si>
-  <si>
-    <t>Powerpoint</t>
-  </si>
-  <si>
-    <t>Sprint2.ppt</t>
-  </si>
-  <si>
-    <t>Slide 4 to 6</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Someclass.java</t>
-  </si>
-  <si>
-    <t>New code(20), Updated(3)</t>
-  </si>
-  <si>
-    <t>Project plan</t>
-  </si>
-  <si>
-    <t>plan.prj</t>
-  </si>
-  <si>
-    <t>task 1 to 5</t>
-  </si>
-  <si>
-    <t>Defect</t>
-  </si>
-  <si>
-    <t>Bugzilla</t>
-  </si>
-  <si>
-    <t>Bug ID - 1, 3, 7</t>
-  </si>
-  <si>
-    <t>testcase.java</t>
-  </si>
-  <si>
-    <t>Unit test</t>
-  </si>
-  <si>
-    <t>New code(23), Updated(1)</t>
-  </si>
-  <si>
-    <t>Test data</t>
-  </si>
-  <si>
-    <t>New test data (5)</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
     <t>Team Member</t>
   </si>
   <si>
-    <t>Joe, Smith</t>
-  </si>
-  <si>
     <t>Towards objectives</t>
   </si>
   <si>
@@ -124,45 +58,9 @@
     <t>Objectives</t>
   </si>
   <si>
-    <t>Example Template</t>
-  </si>
-  <si>
-    <t>Your Name</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>Sprint#</t>
   </si>
   <si>
-    <t>Research Report</t>
-  </si>
-  <si>
-    <t>Report.doc</t>
-  </si>
-  <si>
-    <t>page 1 to 20</t>
-  </si>
-  <si>
-    <t>Project Setup</t>
-  </si>
-  <si>
-    <t>Joining Team.doc</t>
-  </si>
-  <si>
-    <t>page 1 - 10</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>build scripts..</t>
-  </si>
-  <si>
-    <t>Speciifcs of the script and purpose</t>
-  </si>
-  <si>
     <t>Sprint # 1</t>
   </si>
   <si>
@@ -199,22 +97,13 @@
     <t>Sprint # 12</t>
   </si>
   <si>
-    <t>Example Project</t>
-  </si>
-  <si>
     <t>6[CS]</t>
   </si>
   <si>
     <t>6[IT]</t>
   </si>
   <si>
-    <t>6,7[CS, IT]</t>
-  </si>
-  <si>
     <t>Joined Discord and partook in 3 meetings, Joined Github, helped create and present Sprint 1 Google Slides.  Helped create Sprint 1 Google Doc.</t>
-  </si>
-  <si>
-    <t>https://github.com/quentinxs/GPTMS/blob/master/docs/sprints/Sprint%201.docx; https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx</t>
   </si>
   <si>
     <t>Sprint1.doc
@@ -222,6 +111,22 @@
   </si>
   <si>
     <t>pptx slide 10,11  doc Toolchain, Language</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/Collin/docs/presentations/Sprint%201.pptx
+https://github.com/quentinxs/GPTMS/blob/Collin/docs/sprints/Sprint%201.docx</t>
+  </si>
+  <si>
+    <t>Collin Junkersfeld</t>
+  </si>
+  <si>
+    <t>GPTMS</t>
+  </si>
+  <si>
+    <t>5,6[IT]</t>
+  </si>
+  <si>
+    <t>Junkersfeld, Collin</t>
   </si>
 </sst>
 </file>
@@ -736,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -754,12 +659,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
-        <v>33</v>
-      </c>
+      <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -768,12 +671,10 @@
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="C2" s="15"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="20" t="s">
@@ -784,14 +685,14 @@
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -808,211 +709,151 @@
     </row>
     <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="7">
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="8"/>
@@ -1051,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1066,12 +907,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -1081,12 +920,10 @@
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="C2" s="15"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1098,7 +935,7 @@
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -1109,10 +946,10 @@
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -1130,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,28 +978,18 @@
         <v>0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="11">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
         <v>2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">

--- a/docs/efforts/Collin Junkersfeld.xlsx
+++ b/docs/efforts/Collin Junkersfeld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmjun\OneDrive\Documents\GitHub\golf\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C5D0A4-A1EA-48A0-81D2-206E09A6BE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D5EE2-1B01-437B-90BC-8D89E04EFEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -127,13 +127,33 @@
   </si>
   <si>
     <t>Junkersfeld, Collin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint2.pptx
+DesignClassDiagram.mdj
+DomainClassDiagram.mdj
+</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/master/docs/diagrams
+https://github.com/quentinxs/GPTMS/blob/master/docs/presentations/Sprint%202.pptx</t>
+  </si>
+  <si>
+    <t>Multiple team discord meetings. Created Sprint 2
+presentation. Helped create User Stories Helped Create design and domain class diagram. 
+Wrote out beginning of SSD.  Set up set up WSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pptx slide 1,2,6 (see notes of slide 6 for SSD notes)DesignClassDiagram.mdj
+DomainClassDiagram.mdj
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +197,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,10 +309,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,6 +346,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,18 +376,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -359,8 +388,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -642,7 +681,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,36 +697,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
@@ -708,10 +747,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="7">
         <v>16</v>
       </c>
@@ -731,23 +770,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="8">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
@@ -756,10 +807,10 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
@@ -768,10 +819,10 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="4"/>
@@ -780,10 +831,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="4"/>
@@ -792,10 +843,10 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="4"/>
@@ -804,10 +855,10 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
@@ -816,10 +867,10 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
@@ -828,10 +879,10 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
@@ -840,10 +891,10 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="4"/>
@@ -852,10 +903,10 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="4"/>
@@ -865,11 +916,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -883,7 +929,15 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" display="https://github.com/quentinxs/GPTMS/tree/master/docs/diagrams" xr:uid="{E98C91FB-D85D-4FA5-8C6B-D8862D311DDF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -893,7 +947,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -919,17 +973,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -1001,9 +1055,13 @@
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
